--- a/Figure2/Proteomics_Core_Analysis/sce_proteins_CoreAnalysis.xlsx
+++ b/Figure2/Proteomics_Core_Analysis/sce_proteins_CoreAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doughty/Documents/GitHub/CHASSY_multiOmics_Analysis/Figure2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doughty/Documents/GitHub/CHASSY_multiOmics_Analysis/Figure2/Proteomics_Core_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EA3CA0-E297-A841-A724-02AF9CE88A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F5ABA4-B563-E149-824E-92289A695B2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36560" yWindow="5220" windowWidth="28040" windowHeight="17440" activeTab="5"/>
+    <workbookView xWindow="-36560" yWindow="5220" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sce_SIG_Proteins_Hi_0.75" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="sce_SIG_Proteins_LpH 1" sheetId="6" r:id="rId4"/>
     <sheet name="sce_SIG_Proteins_Osm 0.75" sheetId="4" r:id="rId5"/>
     <sheet name="sce_SIG_Proteins_Osm 1" sheetId="7" r:id="rId6"/>
-    <sheet name="All measured" sheetId="2" r:id="rId7"/>
+    <sheet name="sce_prots_measured" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -4099,7 +4099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4934,7 +4934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7707,7 +7707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8803,7 +8803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -10988,7 +10988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11966,7 +11966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16654,10 +16654,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -19511,10 +19511,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G1353"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="F10:G11"/>
     </sheetView>
   </sheetViews>

--- a/Figure2/Proteomics_Core_Analysis/sce_proteins_CoreAnalysis.xlsx
+++ b/Figure2/Proteomics_Core_Analysis/sce_proteins_CoreAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doughty/Documents/GitHub/CHASSY_multiOmics_Analysis/Figure2/Proteomics_Core_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F5ABA4-B563-E149-824E-92289A695B2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58556C09-CF1D-F54D-9B58-B55AF6504DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36560" yWindow="5220" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36560" yWindow="5220" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sce_SIG_Proteins_Hi_0.75" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <sheet name="sce_SIG_Proteins_Osm 1" sheetId="7" r:id="rId6"/>
     <sheet name="sce_prots_measured" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="1483">
   <si>
     <t>genes</t>
   </si>
@@ -4094,6 +4102,387 @@
   </si>
   <si>
     <t>Core</t>
+  </si>
+  <si>
+    <t>Gene Name</t>
+  </si>
+  <si>
+    <t>ERG1</t>
+  </si>
+  <si>
+    <t>HSP12</t>
+  </si>
+  <si>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>RPS12</t>
+  </si>
+  <si>
+    <t>GLC3</t>
+  </si>
+  <si>
+    <t>GPH1</t>
+  </si>
+  <si>
+    <t>ARG5,6</t>
+  </si>
+  <si>
+    <t>DAP1</t>
+  </si>
+  <si>
+    <t>POS5</t>
+  </si>
+  <si>
+    <t>ACB1</t>
+  </si>
+  <si>
+    <t>Phospho-2-dehydro-3-deoxyheptonate aldolase (EC 2.5.1.54)</t>
+  </si>
+  <si>
+    <t>FPR2</t>
+  </si>
+  <si>
+    <t>STR3</t>
+  </si>
+  <si>
+    <t>ERG11</t>
+  </si>
+  <si>
+    <t>YGR127W</t>
+  </si>
+  <si>
+    <t>HEM12</t>
+  </si>
+  <si>
+    <t>AIM2</t>
+  </si>
+  <si>
+    <t>HHO1</t>
+  </si>
+  <si>
+    <t>GRX1</t>
+  </si>
+  <si>
+    <t>RIM4</t>
+  </si>
+  <si>
+    <t>PFY1</t>
+  </si>
+  <si>
+    <t>FPR1</t>
+  </si>
+  <si>
+    <t>GCV1</t>
+  </si>
+  <si>
+    <t>ARG8</t>
+  </si>
+  <si>
+    <t>ERG6</t>
+  </si>
+  <si>
+    <t>IVY1</t>
+  </si>
+  <si>
+    <t>GUK1</t>
+  </si>
+  <si>
+    <t>YKL033W-A</t>
+  </si>
+  <si>
+    <t>CAR2</t>
+  </si>
+  <si>
+    <t>RNR2</t>
+  </si>
+  <si>
+    <t>ARO9</t>
+  </si>
+  <si>
+    <t>GCV3</t>
+  </si>
+  <si>
+    <t>ECM15</t>
+  </si>
+  <si>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>FAS1</t>
+  </si>
+  <si>
+    <t>YMR196W</t>
+  </si>
+  <si>
+    <t>MRP7</t>
+  </si>
+  <si>
+    <t>ERG3</t>
+  </si>
+  <si>
+    <t>IDI1</t>
+  </si>
+  <si>
+    <t>HIS5</t>
+  </si>
+  <si>
+    <t>YDL124W</t>
+  </si>
+  <si>
+    <t>RIB5</t>
+  </si>
+  <si>
+    <t>GYP7</t>
+  </si>
+  <si>
+    <t>YOP1</t>
+  </si>
+  <si>
+    <t>FBP1</t>
+  </si>
+  <si>
+    <t>TOM40</t>
+  </si>
+  <si>
+    <t>EPS1</t>
+  </si>
+  <si>
+    <t>FOL2</t>
+  </si>
+  <si>
+    <t>GCV2</t>
+  </si>
+  <si>
+    <t>AIM29</t>
+  </si>
+  <si>
+    <t>Hsp104</t>
+  </si>
+  <si>
+    <t>HOM2</t>
+  </si>
+  <si>
+    <t>ERG9</t>
+  </si>
+  <si>
+    <t>TFS1</t>
+  </si>
+  <si>
+    <t>THR1</t>
+  </si>
+  <si>
+    <t>MCX1</t>
+  </si>
+  <si>
+    <t>SOD1</t>
+  </si>
+  <si>
+    <t>ARO2</t>
+  </si>
+  <si>
+    <t>TEF1/TEF2</t>
+  </si>
+  <si>
+    <t>RBL2</t>
+  </si>
+  <si>
+    <t>YJR008W</t>
+  </si>
+  <si>
+    <t>NPL3</t>
+  </si>
+  <si>
+    <t>POM33</t>
+  </si>
+  <si>
+    <t>ATP17</t>
+  </si>
+  <si>
+    <t>CCC1</t>
+  </si>
+  <si>
+    <t>SDH6</t>
+  </si>
+  <si>
+    <t>DUG3</t>
+  </si>
+  <si>
+    <t>MCR1</t>
+  </si>
+  <si>
+    <t>OPI10</t>
+  </si>
+  <si>
+    <t>PMR1</t>
+  </si>
+  <si>
+    <t>MRPL32</t>
+  </si>
+  <si>
+    <t>PGC1</t>
+  </si>
+  <si>
+    <t>YIL108W</t>
+  </si>
+  <si>
+    <t>SUB1</t>
+  </si>
+  <si>
+    <t>MSC1</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+  </si>
+  <si>
+    <t>CRC1</t>
+  </si>
+  <si>
+    <t>BCP1</t>
+  </si>
+  <si>
+    <t>AGX1</t>
+  </si>
+  <si>
+    <t>IDH1</t>
+  </si>
+  <si>
+    <t>GLO1</t>
+  </si>
+  <si>
+    <t>GRE3</t>
+  </si>
+  <si>
+    <t>SFA1</t>
+  </si>
+  <si>
+    <t>DDR48</t>
+  </si>
+  <si>
+    <t>RIB4</t>
+  </si>
+  <si>
+    <t>PCK1</t>
+  </si>
+  <si>
+    <t>PRE1</t>
+  </si>
+  <si>
+    <t>GCD14</t>
+  </si>
+  <si>
+    <t>ASC1</t>
+  </si>
+  <si>
+    <t>RAD51</t>
+  </si>
+  <si>
+    <t>NFU1</t>
+  </si>
+  <si>
+    <t>RPL38</t>
+  </si>
+  <si>
+    <t>Ribosomal protein L15</t>
+  </si>
+  <si>
+    <t>RPL25</t>
+  </si>
+  <si>
+    <t>VMA5</t>
+  </si>
+  <si>
+    <t>MET17</t>
+  </si>
+  <si>
+    <t>SNU13</t>
+  </si>
+  <si>
+    <t>MRP17</t>
+  </si>
+  <si>
+    <t>MIC19</t>
+  </si>
+  <si>
+    <t>TIM9</t>
+  </si>
+  <si>
+    <t>PRE4</t>
+  </si>
+  <si>
+    <t>RPN8</t>
+  </si>
+  <si>
+    <t>LYS9</t>
+  </si>
+  <si>
+    <t>ADK1</t>
+  </si>
+  <si>
+    <t>DET1</t>
+  </si>
+  <si>
+    <t>MES1</t>
+  </si>
+  <si>
+    <t>MET3</t>
+  </si>
+  <si>
+    <t>YHB1</t>
+  </si>
+  <si>
+    <t>MET16</t>
+  </si>
+  <si>
+    <t>PUS7</t>
+  </si>
+  <si>
+    <t>ERG5</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>BOL3</t>
+  </si>
+  <si>
+    <t>OLE1</t>
+  </si>
+  <si>
+    <t>Snz1</t>
+  </si>
+  <si>
+    <t>UGO1</t>
+  </si>
+  <si>
+    <t>ERG26</t>
+  </si>
+  <si>
+    <t>CBR1</t>
+  </si>
+  <si>
+    <t>SAH1</t>
+  </si>
+  <si>
+    <t>PFK26</t>
+  </si>
+  <si>
+    <t>GAD1</t>
+  </si>
+  <si>
+    <t>NYV1</t>
+  </si>
+  <si>
+    <t>MAS1</t>
+  </si>
+  <si>
+    <t>ATX1</t>
+  </si>
+  <si>
+    <t>HSP10</t>
+  </si>
+  <si>
+    <t>KAP95</t>
   </si>
 </sst>
 </file>
@@ -7708,1095 +8097,1221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>-1.8275578998202</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.50888947320669E-16</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2">
+        <v>-1.6650673236333899</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.6704851073989701E-54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>-1.6650673236333899</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.6704851073989701E-54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C3">
+        <v>-1.5566509530866599</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.3606366548034201E-5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4">
-        <v>-1.5566509530866599</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.3606366548034201E-5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C4">
+        <v>-1.53217203771816</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.3058973800602001E-20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>-1.53217203771816</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.3058973800602001E-20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C5">
+        <v>-1.4262388779236801</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.4154836895816099E-5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6">
-        <v>-1.4262388779236801</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.4154836895816099E-5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C6">
+        <v>-1.3777901088222899</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.32791645446115E-9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>-1.3777901088222899</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.32791645446115E-9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C7">
+        <v>-1.3467403630825201</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.9335262276068198E-27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-1.3467403630825201</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.9335262276068198E-27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C8">
+        <v>-1.2906429460074</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.9679336544010698E-28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>-1.3382391194805701</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.79879551385753E-18</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C9">
+        <v>-1.2778022802062801</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1448110098215701E-7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10">
-        <v>-1.3097668294455</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.4251478082326899E-5</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C10">
+        <v>-1.2629409734702099</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.0917859145572499E-15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11">
-        <v>-1.3017103779414201</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.3475169136894801E-10</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G11">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C11">
+        <v>-1.21345520409022</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.4430824688856197E-14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H11">
         <v>844</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>-1.30011531875648</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9.0698814908590393E-24</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G12">
-        <f>COUNTIF($D:$D,G10)</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C12">
+        <v>-1.19340890993476</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.2590574503673501E-24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF($E:$E,H10)</f>
         <v>41</v>
       </c>
-      <c r="H12">
-        <f>COUNTIF($D:$D,H10)</f>
+      <c r="I12">
+        <f>COUNTIF($E:$E,I10)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>-1.2906429460074</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7.9679336544010698E-28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G13">
-        <f>((G12/G11)*100)</f>
-        <v>4.8578199052132707</v>
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C13">
+        <v>-1.15338647696884</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.3643847315284898E-12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1355</v>
       </c>
       <c r="H13">
         <f>((H12/H11)*100)</f>
+        <v>4.8578199052132707</v>
+      </c>
+      <c r="I13">
+        <f>((I12/I11)*100)</f>
         <v>6.4960629921259834</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
-        <v>-1.2778022802062801</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.1448110098215701E-7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C14">
+        <v>-1.14483725623415</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.3412353204503501E-20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C15">
+        <v>-1.1439330292257801</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.7679063961347703E-10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C16">
+        <v>-1.1421198536802699</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.7321760075063803E-8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C17">
+        <v>-1.13117466932642</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.8240857223612197E-18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C18">
+        <v>-1.1263163103034699</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.1627301947345401E-9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C19">
+        <v>-1.1224386641419699</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.8100287165700101E-18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C20">
+        <v>-1.12114164682268</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.5350982756450801E-13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C21">
+        <v>-1.11735686048774</v>
+      </c>
+      <c r="D21">
+        <v>1.57024250128898E-4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C22">
+        <v>-1.1041505271699801</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.0623448499837301E-11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C23">
+        <v>-1.1028160482259299</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.3826191902346101E-18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C24">
+        <v>-1.09810912173315</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.4313492512271299E-19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C25">
+        <v>-1.09504162500102</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7.3651218090996202E-10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C26">
+        <v>-1.08175689790178</v>
+      </c>
+      <c r="D26">
+        <v>6.4768175483412797E-3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C27">
+        <v>-1.07980109244481</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.69980790240044E-22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C28">
+        <v>-1.0630271331091901</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.20029497761075E-12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C29">
+        <v>-1.0470074574986199</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.2994466025427701E-15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C30">
+        <v>-1.0449798784514699</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.23963284703149E-19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C31">
+        <v>-1.04193468906544</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.7245031392869596E-18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C32">
+        <v>-1.01720662161413</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.8601296269863899E-5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C33">
+        <v>-1.01138857796143</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.5171666181836801E-21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C34">
+        <v>1.0228855682945499</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8.8215518129651198E-12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C35">
+        <v>1.0277475364520301</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.2923060169666098E-9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C36">
+        <v>1.03325959436278</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.8492752101657702E-5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C37">
+        <v>1.0619219319049</v>
+      </c>
+      <c r="D37">
+        <v>3.8448406568270198E-3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C38">
+        <v>1.0822555177486199</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.2281813918889907E-5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C39">
+        <v>1.0822556976367901</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.6389132220087997E-8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C40">
+        <v>1.1204213607714599</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.1808381473882701E-28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C41">
+        <v>1.1936742092780701</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.8255064664613498E-13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C42">
+        <v>1.70879243856079</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.1173628607932799E-37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>-1.8275578998202</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.50888947320669E-16</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>-1.3382391194805701</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.79879551385753E-18</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45">
+        <v>-1.3097668294455</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.4251478082326899E-5</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <v>-1.3017103779414201</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.3475169136894801E-10</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>-1.30011531875648</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9.0698814908590393E-24</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
+      <c r="C48">
         <v>-1.2661571960825</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D48" s="1">
         <v>2.88457123629772E-15</v>
       </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>-1.2629409734702099</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.0917859145572499E-15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>160</v>
       </c>
-      <c r="B17">
+      <c r="C49">
         <v>-1.2192124787626499</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D49" s="1">
         <v>1.5690820730749402E-5</v>
       </c>
-      <c r="D17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="C50">
         <v>-1.21502921195177</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D50" s="1">
         <v>4.7576187540469597E-17</v>
       </c>
-      <c r="D18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>-1.21345520409022</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.4430824688856197E-14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>-1.19340890993476</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.2590574503673501E-24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>196</v>
       </c>
-      <c r="B21">
+      <c r="C51">
         <v>-1.18783522136626</v>
       </c>
-      <c r="C21">
+      <c r="D51">
         <v>7.27249694081429E-3</v>
       </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22">
-        <v>-1.15338647696884</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6.3643847315284898E-12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>-1.14483725623415</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.3412353204503501E-20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24">
-        <v>-1.1439330292257801</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4.7679063961347703E-10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25">
-        <v>-1.1421198536802699</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4.7321760075063803E-8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>-1.13117466932642</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3.8240857223612197E-18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27">
-        <v>-1.1263163103034699</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.1627301947345401E-9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>-1.1224386641419699</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4.8100287165700101E-18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29">
-        <v>-1.12114164682268</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="E51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52">
+        <v>-1.0891634934252299</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.7178470474255803E-7</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53">
+        <v>-1.06826985635518</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.42861528853037E-6</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54">
+        <v>-1.0404579848565201</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.4156838108069602E-10</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55">
+        <v>-1.03364003565969</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.0550223302691501E-16</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>-1.0329706230996301</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.1650870504934706E-9</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57">
+        <v>-1.0114217347747201</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.3752573155690999E-7</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58">
+        <v>1.00470833928613</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.5670279828588802E-6</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59">
+        <v>1.0087249717164799</v>
+      </c>
+      <c r="D59" s="1">
+        <v>7.3949197464638397E-8</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <v>1.0128182418229099</v>
+      </c>
+      <c r="D60" s="1">
+        <v>7.2719196422185798E-10</v>
+      </c>
+      <c r="E60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>1.03527112491998</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.84383812644088E-20</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>1.0561002088614699</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.5972663863212E-16</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <v>1.0810133272678</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.0886904062116501E-12</v>
+      </c>
+      <c r="E63" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>1.1419295525298601</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4.4938268295578001E-12</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>1.1427680246817</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5.0362346210794E-10</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66">
+        <v>1.1559484161449101</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.59118881184841E-9</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67">
+        <v>1.2229207689961801</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.42217684097863E-8</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68">
+        <v>1.2574061490683801</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.9136973010816402E-5</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>1.2768072929068299</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5.9125931659214701E-29</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>1.3475773934756601</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3.9526829110548903E-27</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>1.3767239350629801</v>
+      </c>
+      <c r="D71" s="1">
         <v>1.5350982756450801E-13</v>
       </c>
-      <c r="D29" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30">
-        <v>-1.11735686048774</v>
-      </c>
-      <c r="C30">
-        <v>1.57024250128898E-4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31">
-        <v>-1.1041505271699801</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.0623448499837301E-11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32">
-        <v>-1.1028160482259299</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.3826191902346101E-18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33">
-        <v>-1.09810912173315</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5.4313492512271299E-19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34">
-        <v>-1.09504162500102</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7.3651218090996202E-10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35">
-        <v>-1.0891634934252299</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3.7178470474255803E-7</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36">
-        <v>-1.08175689790178</v>
-      </c>
-      <c r="C36">
-        <v>6.4768175483412797E-3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>-1.07980109244481</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.69980790240044E-22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38">
-        <v>-1.06826985635518</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2.42861528853037E-6</v>
-      </c>
-      <c r="D38" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39">
-        <v>-1.0630271331091901</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.20029497761075E-12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>-1.0470074574986199</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6.2994466025427701E-15</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41">
-        <v>-1.0449798784514699</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.23963284703149E-19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42">
-        <v>-1.04193468906544</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3.7245031392869596E-18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43">
-        <v>-1.0404579848565201</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3.4156838108069602E-10</v>
-      </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44">
-        <v>-1.03364003565969</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2.0550223302691501E-16</v>
-      </c>
-      <c r="D44" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45">
-        <v>-1.0329706230996301</v>
-      </c>
-      <c r="C45" s="1">
-        <v>8.1650870504934706E-9</v>
-      </c>
-      <c r="D45" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46">
-        <v>-1.01720662161413</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3.8601296269863899E-5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47">
-        <v>-1.0114217347747201</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1.3752573155690999E-7</v>
-      </c>
-      <c r="D47" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48">
-        <v>-1.01138857796143</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1.5171666181836801E-21</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49">
-        <v>1.00470833928613</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2.5670279828588802E-6</v>
-      </c>
-      <c r="D49" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50">
-        <v>1.0087249717164799</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7.3949197464638397E-8</v>
-      </c>
-      <c r="D50" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51">
-        <v>1.0128182418229099</v>
-      </c>
-      <c r="C51" s="1">
-        <v>7.2719196422185798E-10</v>
-      </c>
-      <c r="D51" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52">
-        <v>1.0228855682945499</v>
-      </c>
-      <c r="C52" s="1">
-        <v>8.8215518129651198E-12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>1.0277475364520301</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3.2923060169666098E-9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54">
-        <v>1.03325959436278</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.8492752101657702E-5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55">
-        <v>1.03527112491998</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.84383812644088E-20</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56">
-        <v>1.0561002088614699</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.5972663863212E-16</v>
-      </c>
-      <c r="D56" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57">
-        <v>1.0619219319049</v>
-      </c>
-      <c r="C57">
-        <v>3.8448406568270198E-3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>1.0810133272678</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2.0886904062116501E-12</v>
-      </c>
-      <c r="D58" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59">
-        <v>1.0822555177486199</v>
-      </c>
-      <c r="C59" s="1">
-        <v>9.2281813918889907E-5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60">
-        <v>1.0822556976367901</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3.6389132220087997E-8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>1.1204213607714599</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.1808381473882701E-28</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>1.1419295525298601</v>
-      </c>
-      <c r="C62" s="1">
-        <v>4.4938268295578001E-12</v>
-      </c>
-      <c r="D62" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63">
-        <v>1.1427680246817</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5.0362346210794E-10</v>
-      </c>
-      <c r="D63" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64">
-        <v>1.1559484161449101</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.59118881184841E-9</v>
-      </c>
-      <c r="D64" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65">
-        <v>1.1936742092780701</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2.8255064664613498E-13</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66">
-        <v>1.2229207689961801</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1.42217684097863E-8</v>
-      </c>
-      <c r="D66" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67">
-        <v>1.2574061490683801</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3.9136973010816402E-5</v>
-      </c>
-      <c r="D67" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>1.2768072929068299</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5.9125931659214701E-29</v>
-      </c>
-      <c r="D68" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69">
-        <v>1.3475773934756601</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3.9526829110548903E-27</v>
-      </c>
-      <c r="D69" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70">
-        <v>1.3767239350629801</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.5350982756450801E-13</v>
-      </c>
-      <c r="D70" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="E71" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>10</v>
       </c>
-      <c r="B71">
+      <c r="C72">
         <v>1.4239245498211399</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D72" s="1">
         <v>5.9187034994068502E-26</v>
       </c>
-      <c r="D71" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="E72" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>126</v>
       </c>
-      <c r="B72">
+      <c r="C73">
         <v>1.48732517298318</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D73" s="1">
         <v>4.0973546854968998E-8</v>
       </c>
-      <c r="D72" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73">
-        <v>1.70879243856079</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1.1173628607932799E-37</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1.9414925206175799</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>2.31721713772847E-18</v>
       </c>
-      <c r="D74" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>2.5179863556442399</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>2.1263184942674201E-17</v>
       </c>
-      <c r="D75" t="e">
+      <c r="E75" t="e">
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D75">
-    <sortCondition ref="B2:B75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E75">
+    <sortCondition ref="E2:E75"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8806,7 +9321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D52" sqref="A52:D137"/>
     </sheetView>
   </sheetViews>
@@ -10980,7 +11495,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D153">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
     <sortCondition ref="B2:B153"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10989,978 +11504,1077 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B33" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B2">
-        <v>-2.3020820856519699</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4.1749521795570397E-14</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C2">
+        <v>-1.9805813030680199</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.9522946495503699E-10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3">
-        <v>-1.9805813030680199</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.9522946495503699E-10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C3">
+        <v>-1.63685990810854</v>
+      </c>
+      <c r="D3">
+        <v>2.6966950748938401E-4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>-1.6627824141221399</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.6645143541983807E-13</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C4">
+        <v>-1.5282264269458099</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.1969943631394799E-5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5">
-        <v>-1.63685990810854</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1445</v>
       </c>
       <c r="C5">
-        <v>2.6966950748938401E-4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1.4646992836372501</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.6097825524906501E-26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6">
-        <v>-1.5711769997344101</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.9576910656093297E-9</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C6">
+        <v>-1.4289666273958199</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.54670156694372E-14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7">
-        <v>-1.5282264269458099</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.1969943631394799E-5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C7">
+        <v>-1.34360230133703</v>
+      </c>
+      <c r="D7">
+        <v>6.4668846374921303E-3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8">
-        <v>-1.5182293687302999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.8190625925896299E-10</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C8">
+        <v>-1.3321115378797099</v>
+      </c>
+      <c r="D8">
+        <v>1.9708083746881599E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>-1.4646992836372501</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.6097825524906501E-26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C9">
+        <v>-1.3032610372877</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.2281738247809401E-14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10">
-        <v>-1.4374308222478001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.68122512183648E-14</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C10">
+        <v>-1.2185640301791301</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1801274860490001E-5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11">
-        <v>-1.4289666273958199</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.54670156694372E-14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G11">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C11">
+        <v>-1.21041229067486</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.17748925227639E-10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H11">
         <v>844</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12">
-        <v>-1.4196160082487399</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1450</v>
       </c>
       <c r="C12">
-        <v>4.8197091521013199E-4</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G12">
-        <f>COUNTIF($D:$D,G10)</f>
+        <v>-1.2068187589194199</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.4867432290807303E-21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF($E:$E,H10)</f>
         <v>32</v>
       </c>
-      <c r="H12">
-        <f>COUNTIF($D:$D,H10)</f>
+      <c r="I12">
+        <f>COUNTIF($E:$E,I10)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13">
-        <v>-1.4034719431307301</v>
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1393</v>
       </c>
       <c r="C13">
-        <v>2.5125805752329898E-4</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G13">
-        <f>((G12/G11)*100)</f>
-        <v>3.7914691943127963</v>
+        <v>-1.17941796752786</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.8335514370615001E-18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1355</v>
       </c>
       <c r="H13">
         <f>((H12/H11)*100)</f>
+        <v>3.7914691943127963</v>
+      </c>
+      <c r="I13">
+        <f>((I12/I11)*100)</f>
         <v>6.6929133858267722</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C14">
+        <v>-1.16851637405355</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.4030440129514101E-16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C15">
+        <v>-1.1616705457428</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.3743117235099002E-16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C16">
+        <v>-1.14986445033472</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.4390589732578699E-6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C17">
+        <v>-1.1444957035744701</v>
+      </c>
+      <c r="D17">
+        <v>3.65725403263847E-3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>649</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C18">
+        <v>-1.1259264620568299</v>
+      </c>
+      <c r="D18">
+        <v>1.28700765264655E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C19">
+        <v>-1.1214812812796899</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.6718964857396099E-8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C20">
+        <v>-1.1194971003883001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.7099959326836504E-7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C21">
+        <v>-1.1027354419292901</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.96715869663426E-10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C22">
+        <v>-1.08575434171666</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.1806466301760701E-9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C23">
+        <v>-1.05621785092883</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9.2243626879212097E-7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C24">
+        <v>-1.03849448864811</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.1276307309609399E-19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C25">
+        <v>-1.0372813786980399</v>
+      </c>
+      <c r="D25">
+        <v>5.9087943151354501E-3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C26">
+        <v>-1.0235908739206501</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.9037507357870708E-6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C27">
+        <v>-1.0210879458847699</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.2221344257938101E-8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>731</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C28">
+        <v>-1.0177013618638799</v>
+      </c>
+      <c r="D28">
+        <v>4.7845581632323299E-4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C29">
+        <v>-1.0106012219304099</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.42360299940234E-13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C30">
+        <v>1.13419913493498</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.5574775522723901E-19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C31">
+        <v>1.16838072320373</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.51829006733941E-8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C32">
+        <v>1.7068544340332901</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.5719811113093801E-21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C33">
+        <v>1.8290182446873899</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6.8027393110058904E-20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>743</v>
+      </c>
+      <c r="C34">
+        <v>-2.3020820856519699</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.1749521795570397E-14</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>-1.6627824141221399</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9.6645143541983807E-13</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36">
+        <v>-1.5711769997344101</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.9576910656093297E-9</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>-1.5182293687302999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.8190625925896299E-10</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38">
+        <v>-1.4374308222478001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.68122512183648E-14</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39">
+        <v>-1.4196160082487399</v>
+      </c>
+      <c r="D39">
+        <v>4.8197091521013199E-4</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40">
+        <v>-1.4034719431307301</v>
+      </c>
+      <c r="D40">
+        <v>2.5125805752329898E-4</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="C41">
         <v>-1.3776132920625099</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D41" s="1">
         <v>3.4763075707459999E-6</v>
       </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>351</v>
       </c>
-      <c r="B15">
+      <c r="C42">
         <v>-1.3741023256734499</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D42" s="1">
         <v>1.9002603474359601E-11</v>
       </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>617</v>
-      </c>
-      <c r="B16">
-        <v>-1.34360230133703</v>
-      </c>
-      <c r="C16">
-        <v>6.4668846374921303E-3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>618</v>
-      </c>
-      <c r="B17">
-        <v>-1.3321115378797099</v>
-      </c>
-      <c r="C17">
-        <v>1.9708083746881599E-3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E42" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>109</v>
       </c>
-      <c r="B18">
+      <c r="C43">
         <v>-1.3130756606459899</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D43" s="1">
         <v>3.5786886607075699E-19</v>
       </c>
-      <c r="D18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>-1.3032610372877</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.2281738247809401E-14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>137</v>
       </c>
-      <c r="B20">
+      <c r="C44">
         <v>-1.3006460849725701</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D44" s="1">
         <v>1.1702299965039901E-14</v>
       </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="C45">
         <v>-1.29533774636973</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D45" s="1">
         <v>6.6962121318004601E-19</v>
       </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="E45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>757</v>
       </c>
-      <c r="B22">
+      <c r="C46">
         <v>-1.2353041362794399</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D46" s="1">
         <v>5.4352646077495798E-7</v>
       </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>385</v>
       </c>
-      <c r="B23">
+      <c r="C47">
         <v>-1.22730608054174</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D47" s="1">
         <v>4.1105653382027598E-8</v>
       </c>
-      <c r="D23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>421</v>
-      </c>
-      <c r="B24">
-        <v>-1.2185640301791301</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.1801274860490001E-5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25">
-        <v>-1.21041229067486</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3.17748925227639E-10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>183</v>
       </c>
-      <c r="B26">
+      <c r="C48">
         <v>-1.20910253425405</v>
       </c>
-      <c r="C26">
+      <c r="D48">
         <v>2.7889235894153197E-4</v>
       </c>
-      <c r="D26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>-1.2068187589194199</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3.4867432290807303E-21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="C49">
         <v>-1.19068470629879</v>
       </c>
-      <c r="C28">
+      <c r="D49">
         <v>1.4019008686062999E-3</v>
       </c>
-      <c r="D28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29">
-        <v>-1.17941796752786</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6.8335514370615001E-18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30">
-        <v>-1.16851637405355</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3.4030440129514101E-16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <v>-1.1616705457428</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2.3743117235099002E-16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32">
-        <v>-1.14986445033472</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.4390589732578699E-6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33">
-        <v>-1.1444957035744701</v>
-      </c>
-      <c r="C33">
-        <v>3.65725403263847E-3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="E49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>251</v>
       </c>
-      <c r="B34">
+      <c r="C50">
         <v>-1.1421977962296399</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D50" s="1">
         <v>4.1749521795570397E-14</v>
       </c>
-      <c r="D34" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>649</v>
-      </c>
-      <c r="B35">
-        <v>-1.1259264620568299</v>
-      </c>
-      <c r="C35">
-        <v>1.28700765264655E-3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36">
-        <v>-1.1214812812796899</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3.6718964857396099E-8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37">
-        <v>-1.1194971003883001</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7.7099959326836504E-7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B38">
-        <v>-1.1027354419292901</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.96715869663426E-10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="E50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="B39">
+      <c r="C51">
         <v>-1.0930247960933499</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D51" s="1">
         <v>1.0126831810432699E-8</v>
       </c>
-      <c r="D39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40">
-        <v>-1.08575434171666</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.1806466301760701E-9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="E51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>799</v>
       </c>
-      <c r="B41">
+      <c r="C52">
         <v>-1.06008594763606</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D52" s="1">
         <v>3.6703577463368798E-10</v>
       </c>
-      <c r="D41" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
-        <v>-1.05621785092883</v>
-      </c>
-      <c r="C42" s="1">
-        <v>9.2243626879212097E-7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="E52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>687</v>
       </c>
-      <c r="B43">
+      <c r="C53">
         <v>-1.04164714175638</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D53" s="1">
         <v>9.62807518287789E-5</v>
       </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44">
-        <v>-1.03849448864811</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3.1276307309609399E-19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B45">
-        <v>-1.0372813786980399</v>
-      </c>
-      <c r="C45">
-        <v>5.9087943151354501E-3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="E53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>193</v>
       </c>
-      <c r="B46">
+      <c r="C54">
         <v>-1.03634739920514</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D54" s="1">
         <v>4.8832100519495698E-5</v>
       </c>
-      <c r="D46" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47">
-        <v>-1.0235908739206501</v>
-      </c>
-      <c r="C47" s="1">
-        <v>7.9037507357870708E-6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="E54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>597</v>
       </c>
-      <c r="B48">
+      <c r="C55">
         <v>-1.0235458511936899</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D55" s="1">
         <v>1.28552237618018E-5</v>
       </c>
-      <c r="D48" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49">
-        <v>-1.0210879458847699</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3.2221344257938101E-8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>731</v>
-      </c>
-      <c r="B50">
-        <v>-1.0177013618638799</v>
-      </c>
-      <c r="C50">
-        <v>4.7845581632323299E-4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51">
-        <v>-1.0106012219304099</v>
-      </c>
-      <c r="C51" s="1">
-        <v>4.42360299940234E-13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="E55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>1026</v>
       </c>
-      <c r="B52">
+      <c r="C56">
         <v>1.0003620355398</v>
       </c>
-      <c r="C52">
+      <c r="D56">
         <v>9.0034009077706693E-3</v>
       </c>
-      <c r="D52" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="E56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>395</v>
       </c>
-      <c r="B53">
+      <c r="C57">
         <v>1.0104886904946699</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D57" s="1">
         <v>3.8093186885647197E-11</v>
       </c>
-      <c r="D53" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="E57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>154</v>
       </c>
-      <c r="B54">
+      <c r="C58">
         <v>1.03300592485322</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D58" s="1">
         <v>4.2510211959546298E-8</v>
       </c>
-      <c r="D54" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55">
-        <v>1.13419913493498</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="E58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>613</v>
+      </c>
+      <c r="C59">
+        <v>1.1488020110934101</v>
+      </c>
+      <c r="D59" s="1">
         <v>1.5574775522723901E-19</v>
       </c>
-      <c r="D55" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>613</v>
-      </c>
-      <c r="B56">
-        <v>1.1488020110934101</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.5574775522723901E-19</v>
-      </c>
-      <c r="D56" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57">
-        <v>1.16838072320373</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1.51829006733941E-8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="E59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>126</v>
       </c>
-      <c r="B58">
+      <c r="C60">
         <v>1.1852834014659701</v>
       </c>
-      <c r="C58">
+      <c r="D60">
         <v>4.6237968790428297E-4</v>
       </c>
-      <c r="D58" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="E60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>86</v>
       </c>
-      <c r="B59">
+      <c r="C61">
         <v>1.2216965532136199</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D61" s="1">
         <v>8.9581066944859705E-11</v>
       </c>
-      <c r="D59" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="E61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>168</v>
       </c>
-      <c r="B60">
+      <c r="C62">
         <v>1.3185973686558099</v>
       </c>
-      <c r="C60">
+      <c r="D62">
         <v>4.3894516567738901E-4</v>
       </c>
-      <c r="D60" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="E62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>182</v>
       </c>
-      <c r="B61">
+      <c r="C63">
         <v>1.3331819790508099</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D63" s="1">
         <v>1.5980145427669401E-5</v>
       </c>
-      <c r="D61" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="E63" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>165</v>
       </c>
-      <c r="B62">
+      <c r="C64">
         <v>1.3898812524372399</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D64" s="1">
         <v>1.99216516651734E-9</v>
       </c>
-      <c r="D62" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="E64" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>252</v>
       </c>
-      <c r="B63">
+      <c r="C65">
         <v>1.55437636631926</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D65" s="1">
         <v>6.3589930040132199E-31</v>
       </c>
-      <c r="D63" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>418</v>
-      </c>
-      <c r="B64">
-        <v>1.7068544340332901</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.5719811113093801E-21</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65">
-        <v>1.8290182446873899</v>
-      </c>
-      <c r="C65" s="1">
-        <v>6.8027393110058904E-20</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>2.35789535211353</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>5.8486771922286104E-69</v>
       </c>
-      <c r="D66" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>27</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>2.8314010650676198</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>5.0607482547662201E-20</v>
       </c>
-      <c r="D67" t="e">
+      <c r="E67" t="e">
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E67">
+    <sortCondition ref="E2:E67"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -16655,2856 +17269,3117 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="B2" sqref="B2:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C2">
         <v>-3.1431129138801799</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>3.4296930988730098E-119</v>
       </c>
-      <c r="D2" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>995</v>
-      </c>
-      <c r="B3">
-        <v>-3.0872081591739402</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.7516379844494399E-54</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C3">
+        <v>-2.74959797543718</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.2981295625638601E-75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4">
-        <v>-2.74959797543718</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.2981295625638601E-75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C4">
+        <v>-2.6848524616053102</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.84137896120411E-70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5">
-        <v>-2.6848524616053102</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.84137896120411E-70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C5">
+        <v>-2.2059491396806599</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.5957610403123203E-45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6">
-        <v>-2.5981611780992302</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.1649964974361899E-43</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C6">
+        <v>-2.0992476127375101</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.1931891552278399E-60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B7">
-        <v>-2.5748415640074098</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.0945759735012998E-59</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C7">
+        <v>-1.8259812411396099</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.3258439585157399E-46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8">
-        <v>-2.51156717718849</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.66884782840332E-80</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C8">
+        <v>-1.7933192002582601</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.38632525359831E-54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B9">
-        <v>-2.4888220353678498</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.4582554403345201E-44</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C9">
+        <v>-1.70579796040965</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.4824481425737501E-31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>-2.3750036089235702</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4.0478036581541502E-19</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C10">
+        <v>-1.6248399189920799</v>
+      </c>
+      <c r="D10">
+        <v>1.86165350358916E-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>-2.3716594162121698</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.1829199458873801E-15</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G11">
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C11">
+        <v>-1.6029278972755301</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.56218240504809E-28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H11">
         <v>844</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>640</v>
-      </c>
-      <c r="B12">
-        <v>-2.28727804729282</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.9556775461950099E-46</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G12">
-        <f>COUNTIF($D:$D,G10)</f>
+        <v>1160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C12">
+        <v>-1.5976672966549299</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.0282352968976102E-9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF($E:$E,H10)</f>
         <v>87</v>
       </c>
-      <c r="H12">
-        <f>COUNTIF($D:$D,H10)</f>
+      <c r="I12">
+        <f>COUNTIF($E:$E,I10)</f>
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B13">
-        <v>-2.2830470127834199</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6.5855988944406402E-79</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G13">
-        <f>((G12/G11)*100)</f>
-        <v>10.308056872037914</v>
+        <v>1111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C13">
+        <v>-1.55853820610326</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.7290979045125098E-29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1355</v>
       </c>
       <c r="H13">
         <f>((H12/H11)*100)</f>
+        <v>10.308056872037914</v>
+      </c>
+      <c r="I13">
+        <f>((I12/I11)*100)</f>
         <v>22.244094488188974</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C14">
+        <v>-1.54399725169585</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.1446155560510398E-28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C15">
+        <v>-1.5331781822585999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.899560818209E-26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C16">
+        <v>-1.50796783049967</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.2899997902167798E-12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C17">
+        <v>-1.5078374184976699</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.7287947110584097E-27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C18">
+        <v>-1.5073402966882301</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.1703064463856199E-24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C19">
+        <v>-1.50577638768817</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.0068101364301401E-27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C20">
+        <v>-1.50232445057603</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.4494421807601999E-32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>991</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C21">
+        <v>-1.45195734760455</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.0378450755649299E-11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C22">
+        <v>-1.45179235424855</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.0081770569645903E-10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>885</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C23">
+        <v>-1.4494250715472601</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.4598085164030798E-7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C24">
+        <v>-1.3944868152016801</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.71159515313743E-33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C25">
+        <v>-1.3891924920055501</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.27474861031548E-31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C26">
+        <v>-1.3720356317687099</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.6069484409601396E-30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>649</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C27">
+        <v>-1.3658969200673401</v>
+      </c>
+      <c r="D27">
+        <v>1.2136666353828199E-4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C28">
+        <v>-1.3656821306606299</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.98860310300462E-19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C29">
+        <v>-1.3536250021712299</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.51322499701012E-13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C30">
+        <v>-1.3443008601872799</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.5394879321028501E-34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C31">
+        <v>-1.3420992742865701</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5.3499207079211897E-27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C32">
+        <v>-1.33603958583089</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.2630401036565501E-28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>669</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C33">
+        <v>-1.3351070833471399</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6.1336931370101298E-14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C34">
+        <v>-1.31470491624992</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.62332330383129E-32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C35">
+        <v>-1.3038572546418401</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.5756281031723199E-17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C36">
+        <v>-1.2964736157561201</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.80186517686661E-17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>899</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C37">
+        <v>-1.2850704042952801</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.0580524836044301E-18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C38">
+        <v>-1.2843536087116001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.30129587436369E-17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C39">
+        <v>-1.2758918776786901</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.76944669557647E-9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C40">
+        <v>-1.26178394964478</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.4780943918176001E-6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C41">
+        <v>-1.25351388381575</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8.9543977947611396E-7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C42">
+        <v>-1.24672270558206</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.0748257385662699E-19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C43">
+        <v>-1.2443992360598</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.6277840882107601E-14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C44">
+        <v>-1.2427604097479701</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8.7470951124987405E-5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C45">
+        <v>-1.22613743190478</v>
+      </c>
+      <c r="D45">
+        <v>2.6319518635996098E-3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C46">
+        <v>-1.2199861275509101</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.6259933864547497E-13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C47">
+        <v>-1.2198557762808</v>
+      </c>
+      <c r="D47">
+        <v>1.6484559712488299E-3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>720</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C48">
+        <v>-1.21010081666339</v>
+      </c>
+      <c r="D48">
+        <v>1.35211586245077E-3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C49">
+        <v>-1.1982566097159799</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.77565173220561E-21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C50">
+        <v>-1.1909163347596601</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6.1687063498763401E-25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C51">
+        <v>-1.18406310134535</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.7778352297085099E-19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C52">
+        <v>-1.1683422706673501</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6.8139976295553206E-27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C53">
+        <v>-1.1398560078446001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.4898923956689702E-7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C54">
+        <v>-1.1364506127112599</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.5991478625538402E-20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C55">
+        <v>-1.13119121110631</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9.9074083704640503E-8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>478</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C56">
+        <v>-1.12217959638539</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4.4712044930032399E-22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C57">
+        <v>-1.0874140264157199</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.6540307036727399E-22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>691</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C58">
+        <v>-1.0789246384682201</v>
+      </c>
+      <c r="D58">
+        <v>9.9705541088527302E-4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C59">
+        <v>-1.0692574285734999</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.5315651246510699E-14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>482</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C60">
+        <v>-1.0601247720714</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.7519965862023099E-9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>936</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C61">
+        <v>-1.0292804066326</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.8355493015081001E-10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>792</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C62">
+        <v>-1.0156016494937901</v>
+      </c>
+      <c r="D62" s="1">
+        <v>7.7556808741075303E-14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>656</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C63">
+        <v>-1.0152913009265501</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6.1535378517655897E-8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C64">
+        <v>1.0029453839873099</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.7752976888115401E-7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C65">
+        <v>1.0110097130398601</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4.8777930087015003E-19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>924</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C66">
+        <v>1.0221627325504099</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.2854823946975101E-7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>817</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C67">
+        <v>1.04141288006167</v>
+      </c>
+      <c r="D67">
+        <v>1.09451767672303E-3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>473</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C68">
+        <v>1.0613341537005201</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.3276192255447601E-9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C69">
+        <v>1.06554506892316</v>
+      </c>
+      <c r="D69" s="1">
+        <v>8.2249541637223405E-13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C70">
+        <v>1.07571780205451</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.63875468183416E-24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>560</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C71">
+        <v>1.0779902402428201</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4.9912286372035405E-10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C72">
+        <v>1.0846356270903099</v>
+      </c>
+      <c r="D72">
+        <v>4.78790344136484E-4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C73">
+        <v>1.08971049168331</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.55497650793555E-9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C74">
+        <v>1.13986086140118</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.0819415035091299E-20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C75">
+        <v>1.1529074734273299</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4.37863019299219E-17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C76">
+        <v>1.18677338454211</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.3059249060680499E-12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C77">
+        <v>1.2290269271497201</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2.60650290385328E-10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C78">
+        <v>1.2325703583691201</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8.3950960925046395E-24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C79">
+        <v>1.2676321880603101</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.2544616925347201E-19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C80">
+        <v>1.2683001048603</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9.3589240434163799E-18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>528</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C81">
+        <v>1.31000420019455</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2.20079849383841E-29</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C82">
+        <v>1.3458841001395601</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.899560818209E-26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C83">
+        <v>1.5550550073268199</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9.6794695608274494E-35</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C84">
+        <v>1.6157203525903401</v>
+      </c>
+      <c r="D84" s="1">
+        <v>8.4022018848066801E-47</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C85">
+        <v>1.7619810235020099</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6.2613446174080999E-52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>418</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C86">
+        <v>1.86379140741019</v>
+      </c>
+      <c r="D86" s="1">
+        <v>7.1504138772129197E-33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C87">
+        <v>1.8837056430865</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3.2660090216364102E-64</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C88">
+        <v>2.1565756001371001</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2.36715721651675E-40</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>995</v>
+      </c>
+      <c r="C89">
+        <v>-3.0872081591739402</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1.7516379844494399E-54</v>
+      </c>
+      <c r="E89" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>505</v>
+      </c>
+      <c r="C90">
+        <v>-2.5981611780992302</v>
+      </c>
+      <c r="D90" s="1">
+        <v>4.1649964974361899E-43</v>
+      </c>
+      <c r="E90" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>521</v>
+      </c>
+      <c r="C91">
+        <v>-2.5748415640074098</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4.0945759735012998E-59</v>
+      </c>
+      <c r="E91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92">
+        <v>-2.51156717718849</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3.66884782840332E-80</v>
+      </c>
+      <c r="E92" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>566</v>
+      </c>
+      <c r="C93">
+        <v>-2.4888220353678498</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1.4582554403345201E-44</v>
+      </c>
+      <c r="E93" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94">
+        <v>-2.3750036089235702</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4.0478036581541502E-19</v>
+      </c>
+      <c r="E94" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95">
+        <v>-2.3716594162121698</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.1829199458873801E-15</v>
+      </c>
+      <c r="E95" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>640</v>
+      </c>
+      <c r="C96">
+        <v>-2.28727804729282</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2.9556775461950099E-46</v>
+      </c>
+      <c r="E96" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C97">
+        <v>-2.2830470127834199</v>
+      </c>
+      <c r="D97" s="1">
+        <v>6.5855988944406402E-79</v>
+      </c>
+      <c r="E97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>476</v>
       </c>
-      <c r="B14">
+      <c r="C98">
         <v>-2.2768362161404099</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D98" s="1">
         <v>9.43304926676792E-19</v>
       </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>475</v>
-      </c>
-      <c r="B15">
-        <v>-2.2059491396806599</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9.5957610403123203E-45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E98" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>45</v>
       </c>
-      <c r="B16">
+      <c r="C99">
         <v>-2.1143350863853101</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D99" s="1">
         <v>6.7875156237084703E-7</v>
       </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E99" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>1090</v>
       </c>
-      <c r="B17">
+      <c r="C100">
         <v>-2.1110487409629299</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D100" s="1">
         <v>2.5952232284197E-45</v>
       </c>
-      <c r="D17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>831</v>
-      </c>
-      <c r="B18">
-        <v>-2.0992476127375101</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.1931891552278399E-60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E100" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>744</v>
       </c>
-      <c r="B19">
+      <c r="C101">
         <v>-2.03661900453936</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D101" s="1">
         <v>4.5238489431587301E-26</v>
       </c>
-      <c r="D19" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E101" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>312</v>
       </c>
-      <c r="B20">
+      <c r="C102">
         <v>-2.0269954315888699</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D102" s="1">
         <v>1.5026335900261099E-32</v>
       </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E102" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>1232</v>
       </c>
-      <c r="B21">
+      <c r="C103">
         <v>-2.00460480204032</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D103" s="1">
         <v>5.70342204922335E-36</v>
       </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="E103" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>232</v>
       </c>
-      <c r="B22">
+      <c r="C104">
         <v>-1.9542727429291999</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D104" s="1">
         <v>2.1892314661822201E-59</v>
       </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E104" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>1059</v>
       </c>
-      <c r="B23">
+      <c r="C105">
         <v>-1.9508084869273401</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D105" s="1">
         <v>7.8970012053348201E-61</v>
       </c>
-      <c r="D23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E105" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>911</v>
       </c>
-      <c r="B24">
+      <c r="C106">
         <v>-1.9190381104865599</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D106" s="1">
         <v>4.04223340164413E-37</v>
       </c>
-      <c r="D24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E106" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>668</v>
       </c>
-      <c r="B25">
+      <c r="C107">
         <v>-1.9057794619208299</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D107" s="1">
         <v>1.20725895708024E-50</v>
       </c>
-      <c r="D25" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B26">
-        <v>-1.8259812411396099</v>
-      </c>
-      <c r="C26" s="1">
-        <v>7.3258439585157399E-46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E107" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>562</v>
       </c>
-      <c r="B27">
+      <c r="C108">
         <v>-1.8259509155795799</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D108" s="1">
         <v>5.0132692353996602E-28</v>
       </c>
-      <c r="D27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28">
-        <v>-1.7933192002582601</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.38632525359831E-54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E108" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>1137</v>
       </c>
-      <c r="B29">
+      <c r="C109">
         <v>-1.70949120231188</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D109" s="1">
         <v>6.0746057137762098E-28</v>
       </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E109" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>1229</v>
       </c>
-      <c r="B30">
+      <c r="C110">
         <v>-1.7064053995336901</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D110" s="1">
         <v>4.5791991350597701E-30</v>
       </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>344</v>
-      </c>
-      <c r="B31">
-        <v>-1.70579796040965</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.4824481425737501E-31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="E110" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>378</v>
       </c>
-      <c r="B32">
+      <c r="C111">
         <v>-1.6911840736019801</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D111" s="1">
         <v>3.28644646547054E-55</v>
       </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="E111" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>613</v>
       </c>
-      <c r="B33">
+      <c r="C112">
         <v>-1.66593189421093</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D112" s="1">
         <v>6.6821423477648997E-21</v>
       </c>
-      <c r="D33" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B34">
-        <v>-1.6248399189920799</v>
-      </c>
-      <c r="C34">
-        <v>1.86165350358916E-4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B35">
-        <v>-1.6029278972755301</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.56218240504809E-28</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="E112" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>694</v>
       </c>
-      <c r="B36">
+      <c r="C113">
         <v>-1.60167721169856</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D113" s="1">
         <v>7.8594684625175202E-47</v>
       </c>
-      <c r="D36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B37">
-        <v>-1.5976672966549299</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7.0282352968976102E-9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="E113" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="C114">
         <v>-1.5651768649447999</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D114" s="1">
         <v>4.0976251113753703E-40</v>
       </c>
-      <c r="D38" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B39">
-        <v>-1.55853820610326</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2.7290979045125098E-29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>239</v>
-      </c>
-      <c r="B40">
-        <v>-1.54399725169585</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6.1446155560510398E-28</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="E114" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>461</v>
       </c>
-      <c r="B41">
+      <c r="C115">
         <v>-1.5345011783723099</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D115" s="1">
         <v>2.1346038051504202E-22</v>
       </c>
-      <c r="D41" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42">
-        <v>-1.5331781822585999</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.899560818209E-26</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="E115" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>313</v>
       </c>
-      <c r="B43">
+      <c r="C116">
         <v>-1.5199082683816501</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D116" s="1">
         <v>8.0912442132216895E-30</v>
       </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>436</v>
-      </c>
-      <c r="B44">
-        <v>-1.50796783049967</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2.2899997902167798E-12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45">
-        <v>-1.5078374184976699</v>
-      </c>
-      <c r="C45" s="1">
-        <v>7.7287947110584097E-27</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46">
-        <v>-1.5073402966882301</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1.1703064463856199E-24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="E116" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>205</v>
       </c>
-      <c r="B47">
+      <c r="C117">
         <v>-1.5063252871742601</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D117" s="1">
         <v>3.3424176723954902E-39</v>
       </c>
-      <c r="D47" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>499</v>
-      </c>
-      <c r="B48">
-        <v>-1.50577638768817</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2.0068101364301401E-27</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>403</v>
-      </c>
-      <c r="B49">
-        <v>-1.50232445057603</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2.4494421807601999E-32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="E117" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>1209</v>
       </c>
-      <c r="B50">
+      <c r="C118">
         <v>-1.4704943764898699</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D118" s="1">
         <v>3.4182465054536699E-35</v>
       </c>
-      <c r="D50" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>991</v>
-      </c>
-      <c r="B51">
-        <v>-1.45195734760455</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2.0378450755649299E-11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>421</v>
-      </c>
-      <c r="B52">
-        <v>-1.45179235424855</v>
-      </c>
-      <c r="C52" s="1">
-        <v>8.0081770569645903E-10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>885</v>
-      </c>
-      <c r="B53">
-        <v>-1.4494250715472601</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4.4598085164030798E-7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="E118" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>385</v>
       </c>
-      <c r="B54">
+      <c r="C119">
         <v>-1.4107263689618099</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D119" s="1">
         <v>6.3034706413887998E-22</v>
       </c>
-      <c r="D54" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B55">
-        <v>-1.3944868152016801</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.71159515313743E-33</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="E119" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>581</v>
       </c>
-      <c r="B56">
+      <c r="C120">
         <v>-1.3908282721938801</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D120" s="1">
         <v>2.44394011015837E-30</v>
       </c>
-      <c r="D56" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="E120" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>778</v>
       </c>
-      <c r="B57">
+      <c r="C121">
         <v>-1.3907204665186099</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D121" s="1">
         <v>8.3290887082425107E-28</v>
       </c>
-      <c r="D57" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58">
-        <v>-1.3891924920055501</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2.27474861031548E-31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="E121" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>1258</v>
       </c>
-      <c r="B59">
+      <c r="C122">
         <v>-1.3720942819322099</v>
       </c>
-      <c r="C59">
+      <c r="D122">
         <v>1.71741806617753E-4</v>
       </c>
-      <c r="D59" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60">
-        <v>-1.3720356317687099</v>
-      </c>
-      <c r="C60" s="1">
-        <v>6.6069484409601396E-30</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>649</v>
-      </c>
-      <c r="B61">
-        <v>-1.3658969200673401</v>
-      </c>
-      <c r="C61">
-        <v>1.2136666353828199E-4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B62">
-        <v>-1.3656821306606299</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1.98860310300462E-19</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="E122" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>238</v>
       </c>
-      <c r="B63">
+      <c r="C123">
         <v>-1.3625743448859999</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D123" s="1">
         <v>2.4823503651679801E-16</v>
       </c>
-      <c r="D63" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>325</v>
-      </c>
-      <c r="B64">
-        <v>-1.3536250021712299</v>
-      </c>
-      <c r="C64" s="1">
-        <v>6.51322499701012E-13</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="E123" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>183</v>
       </c>
-      <c r="B65">
+      <c r="C124">
         <v>-1.3506968052075601</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D124" s="1">
         <v>9.4692222235573099E-7</v>
       </c>
-      <c r="D65" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>329</v>
-      </c>
-      <c r="B66">
-        <v>-1.3443008601872799</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1.5394879321028501E-34</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B67">
-        <v>-1.3420992742865701</v>
-      </c>
-      <c r="C67" s="1">
-        <v>5.3499207079211897E-27</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="E124" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>1351</v>
       </c>
-      <c r="B68">
+      <c r="C125">
         <v>-1.3382515798668699</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D125" s="1">
         <v>1.53365098324643E-34</v>
       </c>
-      <c r="D68" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B69">
-        <v>-1.33603958583089</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.2630401036565501E-28</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>669</v>
-      </c>
-      <c r="B70">
-        <v>-1.3351070833471399</v>
-      </c>
-      <c r="C70" s="1">
-        <v>6.1336931370101298E-14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="E125" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>714</v>
       </c>
-      <c r="B71">
+      <c r="C126">
         <v>-1.32448618966028</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D126" s="1">
         <v>7.9796761564695099E-6</v>
       </c>
-      <c r="D71" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B72">
-        <v>-1.31470491624992</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2.62332330383129E-32</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73">
-        <v>-1.3038572546418401</v>
-      </c>
-      <c r="C73" s="1">
-        <v>4.5756281031723199E-17</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B74">
-        <v>-1.2964736157561201</v>
-      </c>
-      <c r="C74" s="1">
-        <v>3.80186517686661E-17</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>899</v>
-      </c>
-      <c r="B75">
-        <v>-1.2850704042952801</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2.0580524836044301E-18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76">
-        <v>-1.2843536087116001</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2.30129587436369E-17</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="E126" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>351</v>
       </c>
-      <c r="B77">
+      <c r="C127">
         <v>-1.2772628323099</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D127" s="1">
         <v>1.92160502924719E-23</v>
       </c>
-      <c r="D77" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78">
-        <v>-1.2758918776786901</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1.76944669557647E-9</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79">
-        <v>-1.26178394964478</v>
-      </c>
-      <c r="C79" s="1">
-        <v>3.4780943918176001E-6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="E127" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>1133</v>
       </c>
-      <c r="B80">
+      <c r="C128">
         <v>-1.2570419033662401</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D128" s="1">
         <v>6.1837733586314497E-27</v>
       </c>
-      <c r="D80" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81">
-        <v>-1.25351388381575</v>
-      </c>
-      <c r="C81" s="1">
-        <v>8.9543977947611396E-7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>490</v>
-      </c>
-      <c r="B82">
-        <v>-1.24672270558206</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1.0748257385662699E-19</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B83">
-        <v>-1.2443992360598</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1.6277840882107601E-14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="E128" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>29</v>
       </c>
-      <c r="B84">
+      <c r="C129">
         <v>-1.24340160533657</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D129" s="1">
         <v>1.7295610110787102E-8</v>
       </c>
-      <c r="D84" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B85">
-        <v>-1.2427604097479701</v>
-      </c>
-      <c r="C85" s="1">
-        <v>8.7470951124987405E-5</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B86">
-        <v>-1.22613743190478</v>
-      </c>
-      <c r="C86">
-        <v>2.6319518635996098E-3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="E129" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>111</v>
       </c>
-      <c r="B87">
+      <c r="C130">
         <v>-1.2220718694436099</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D130" s="1">
         <v>1.25626853408555E-24</v>
       </c>
-      <c r="D87" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>366</v>
-      </c>
-      <c r="B88">
-        <v>-1.2199861275509101</v>
-      </c>
-      <c r="C88" s="1">
-        <v>5.6259933864547497E-13</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89">
-        <v>-1.2198557762808</v>
-      </c>
-      <c r="C89">
-        <v>1.6484559712488299E-3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="E130" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>57</v>
       </c>
-      <c r="B90">
+      <c r="C131">
         <v>-1.21106815240969</v>
       </c>
-      <c r="C90">
+      <c r="D131">
         <v>2.5511375040499499E-4</v>
       </c>
-      <c r="D90" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>720</v>
-      </c>
-      <c r="B91">
-        <v>-1.21010081666339</v>
-      </c>
-      <c r="C91">
-        <v>1.35211586245077E-3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="E131" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>978</v>
       </c>
-      <c r="B92">
+      <c r="C132">
         <v>-1.1996080530406299</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D132" s="1">
         <v>5.0199281654771799E-8</v>
       </c>
-      <c r="D92" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93">
-        <v>-1.1982566097159799</v>
-      </c>
-      <c r="C93" s="1">
-        <v>2.77565173220561E-21</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>217</v>
-      </c>
-      <c r="B94">
-        <v>-1.1909163347596601</v>
-      </c>
-      <c r="C94" s="1">
-        <v>6.1687063498763401E-25</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="E132" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>633</v>
       </c>
-      <c r="B95">
+      <c r="C133">
         <v>-1.18889302598318</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D133" s="1">
         <v>1.1694672235902999E-10</v>
       </c>
-      <c r="D95" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="E133" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>1066</v>
       </c>
-      <c r="B96">
+      <c r="C134">
         <v>-1.18549647114333</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D134" s="1">
         <v>1.33166880808741E-6</v>
       </c>
-      <c r="D96" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>243</v>
-      </c>
-      <c r="B97">
-        <v>-1.18406310134535</v>
-      </c>
-      <c r="C97" s="1">
-        <v>3.7778352297085099E-19</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="E134" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>454</v>
       </c>
-      <c r="B98">
+      <c r="C135">
         <v>-1.1760543903476699</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D135" s="1">
         <v>1.16394895557061E-17</v>
       </c>
-      <c r="D98" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="E135" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>164</v>
       </c>
-      <c r="B99">
+      <c r="C136">
         <v>-1.1693490361065499</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D136" s="1">
         <v>6.1875389473096597E-14</v>
       </c>
-      <c r="D99" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>315</v>
-      </c>
-      <c r="B100">
-        <v>-1.1683422706673501</v>
-      </c>
-      <c r="C100" s="1">
-        <v>6.8139976295553206E-27</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="E136" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>374</v>
       </c>
-      <c r="B101">
+      <c r="C137">
         <v>-1.1581499267451101</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D137" s="1">
         <v>1.7577929630523399E-20</v>
       </c>
-      <c r="D101" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B102">
-        <v>-1.1398560078446001</v>
-      </c>
-      <c r="C102" s="1">
-        <v>3.4898923956689702E-7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103">
-        <v>-1.1364506127112599</v>
-      </c>
-      <c r="C103" s="1">
-        <v>4.5991478625538402E-20</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>91</v>
-      </c>
-      <c r="B104">
-        <v>-1.13119121110631</v>
-      </c>
-      <c r="C104" s="1">
-        <v>9.9074083704640503E-8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="E137" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>811</v>
       </c>
-      <c r="B105">
+      <c r="C138">
         <v>-1.13087312747017</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D138" s="1">
         <v>1.35268017996968E-7</v>
       </c>
-      <c r="D105" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="E138" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>177</v>
       </c>
-      <c r="B106">
+      <c r="C139">
         <v>-1.1231112819671401</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D139" s="1">
         <v>1.0771077685773399E-8</v>
       </c>
-      <c r="D106" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>478</v>
-      </c>
-      <c r="B107">
-        <v>-1.12217959638539</v>
-      </c>
-      <c r="C107" s="1">
-        <v>4.4712044930032399E-22</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="E139" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>1181</v>
       </c>
-      <c r="B108">
+      <c r="C140">
         <v>-1.1125189911970701</v>
       </c>
-      <c r="C108" s="1">
+      <c r="D140" s="1">
         <v>1.46245104876465E-21</v>
       </c>
-      <c r="D108" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="E140" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B109">
+      <c r="C141">
         <v>-1.09631481750188</v>
       </c>
-      <c r="C109" s="1">
+      <c r="D141" s="1">
         <v>3.2769871436044302E-16</v>
       </c>
-      <c r="D109" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="E141" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>982</v>
       </c>
-      <c r="B110">
+      <c r="C142">
         <v>-1.0933123546533701</v>
       </c>
-      <c r="C110" s="1">
+      <c r="D142" s="1">
         <v>1.6065042544351599E-11</v>
       </c>
-      <c r="D110" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B111">
-        <v>-1.0874140264157199</v>
-      </c>
-      <c r="C111" s="1">
-        <v>3.6540307036727399E-22</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="E142" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>147</v>
       </c>
-      <c r="B112">
+      <c r="C143">
         <v>-1.08697741318226</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D143" s="1">
         <v>1.6171996455321601E-7</v>
       </c>
-      <c r="D112" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="E143" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>345</v>
       </c>
-      <c r="B113">
+      <c r="C144">
         <v>-1.0796936703756299</v>
       </c>
-      <c r="C113" s="1">
+      <c r="D144" s="1">
         <v>9.1227194660448291E-16</v>
       </c>
-      <c r="D113" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>691</v>
-      </c>
-      <c r="B114">
-        <v>-1.0789246384682201</v>
-      </c>
-      <c r="C114">
-        <v>9.9705541088527302E-4</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="E144" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>711</v>
       </c>
-      <c r="B115">
+      <c r="C145">
         <v>-1.07763627495989</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D145" s="1">
         <v>4.9180279545278E-15</v>
       </c>
-      <c r="D115" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="E145" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>821</v>
       </c>
-      <c r="B116">
+      <c r="C146">
         <v>-1.0715144030505299</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D146" s="1">
         <v>2.3276192255447601E-9</v>
       </c>
-      <c r="D116" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>89</v>
-      </c>
-      <c r="B117">
-        <v>-1.0692574285734999</v>
-      </c>
-      <c r="C117" s="1">
-        <v>2.5315651246510699E-14</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="E146" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>646</v>
       </c>
-      <c r="B118">
+      <c r="C147">
         <v>-1.0642018396800501</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D147" s="1">
         <v>2.98583787704542E-10</v>
       </c>
-      <c r="D118" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="E147" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>789</v>
       </c>
-      <c r="B119">
+      <c r="C148">
         <v>-1.06047070490019</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D148" s="1">
         <v>9.8116324867669001E-5</v>
       </c>
-      <c r="D119" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>482</v>
-      </c>
-      <c r="B120">
-        <v>-1.0601247720714</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2.7519965862023099E-9</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="E148" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>1211</v>
       </c>
-      <c r="B121">
+      <c r="C149">
         <v>-1.05473798296656</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D149" s="1">
         <v>2.3181986406041801E-20</v>
       </c>
-      <c r="D121" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="E149" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>941</v>
       </c>
-      <c r="B122">
+      <c r="C150">
         <v>-1.0503213386378401</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D150" s="1">
         <v>3.2831361443695399E-9</v>
       </c>
-      <c r="D122" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="E150" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>871</v>
       </c>
-      <c r="B123">
+      <c r="C151">
         <v>-1.04680729206305</v>
       </c>
-      <c r="C123" s="1">
+      <c r="D151" s="1">
         <v>2.3470583506209999E-9</v>
       </c>
-      <c r="D123" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="E151" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>261</v>
       </c>
-      <c r="B124">
+      <c r="C152">
         <v>-1.0460751795577099</v>
       </c>
-      <c r="C124" s="1">
+      <c r="D152" s="1">
         <v>6.6048742906710698E-16</v>
       </c>
-      <c r="D124" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="E152" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>801</v>
       </c>
-      <c r="B125">
+      <c r="C153">
         <v>-1.04469099380352</v>
       </c>
-      <c r="C125" s="1">
+      <c r="D153" s="1">
         <v>2.6833077549256101E-21</v>
       </c>
-      <c r="D125" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="E153" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>1001</v>
       </c>
-      <c r="B126">
+      <c r="C154">
         <v>-1.04267505269099</v>
       </c>
-      <c r="C126" s="1">
+      <c r="D154" s="1">
         <v>7.4815761947980006E-18</v>
       </c>
-      <c r="D126" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="E154" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>352</v>
       </c>
-      <c r="B127">
+      <c r="C155">
         <v>-1.03790791629642</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D155" s="1">
         <v>9.9712628534951508E-12</v>
       </c>
-      <c r="D127" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>936</v>
-      </c>
-      <c r="B128">
-        <v>-1.0292804066326</v>
-      </c>
-      <c r="C128" s="1">
-        <v>1.8355493015081001E-10</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>792</v>
-      </c>
-      <c r="B129">
-        <v>-1.0156016494937901</v>
-      </c>
-      <c r="C129" s="1">
-        <v>7.7556808741075303E-14</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>656</v>
-      </c>
-      <c r="B130">
-        <v>-1.0152913009265501</v>
-      </c>
-      <c r="C130" s="1">
-        <v>6.1535378517655897E-8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="E155" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>785</v>
       </c>
-      <c r="B131">
+      <c r="C156">
         <v>-1.01489913615383</v>
       </c>
-      <c r="C131" s="1">
+      <c r="D156" s="1">
         <v>4.8466032160001804E-13</v>
       </c>
-      <c r="D131" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="E156" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>685</v>
       </c>
-      <c r="B132">
+      <c r="C157">
         <v>-1.0104311497589</v>
       </c>
-      <c r="C132" s="1">
+      <c r="D157" s="1">
         <v>3.2859248334663E-12</v>
       </c>
-      <c r="D132" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="E157" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>622</v>
       </c>
-      <c r="B133">
+      <c r="C158">
         <v>-1.0081988773614801</v>
       </c>
-      <c r="C133" s="1">
+      <c r="D158" s="1">
         <v>8.6922958491806705E-14</v>
       </c>
-      <c r="D133" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="E158" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>1118</v>
       </c>
-      <c r="B134">
+      <c r="C159">
         <v>-1.00588930265551</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D159" s="1">
         <v>3.5044310427366898E-7</v>
       </c>
-      <c r="D134" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135">
-        <v>1.0029453839873099</v>
-      </c>
-      <c r="C135" s="1">
-        <v>1.7752976888115401E-7</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="E159" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>47</v>
       </c>
-      <c r="B136">
+      <c r="C160">
         <v>1.00753123549016</v>
       </c>
-      <c r="C136" s="1">
+      <c r="D160" s="1">
         <v>2.7736244085990102E-19</v>
       </c>
-      <c r="D136" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="E160" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>1159</v>
       </c>
-      <c r="B137">
+      <c r="C161">
         <v>1.00867092780706</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D161" s="1">
         <v>7.4335060551060296E-6</v>
       </c>
-      <c r="D137" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>201</v>
-      </c>
-      <c r="B138">
-        <v>1.0110097130398601</v>
-      </c>
-      <c r="C138" s="1">
-        <v>4.8777930087015003E-19</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="E161" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>43</v>
       </c>
-      <c r="B139">
+      <c r="C162">
         <v>1.01272476683902</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D162" s="1">
         <v>7.3663570360850393E-21</v>
       </c>
-      <c r="D139" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>924</v>
-      </c>
-      <c r="B140">
-        <v>1.0221627325504099</v>
-      </c>
-      <c r="C140" s="1">
-        <v>2.2854823946975101E-7</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="E162" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>104</v>
       </c>
-      <c r="B141">
+      <c r="C163">
         <v>1.0312471112283701</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D163" s="1">
         <v>4.2724311238228101E-19</v>
       </c>
-      <c r="D141" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>817</v>
-      </c>
-      <c r="B142">
-        <v>1.04141288006167</v>
-      </c>
-      <c r="C142">
-        <v>1.09451767672303E-3</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="E163" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>301</v>
       </c>
-      <c r="B143">
+      <c r="C164">
         <v>1.0587949583834799</v>
       </c>
-      <c r="C143" s="1">
+      <c r="D164" s="1">
         <v>1.2020853719537899E-22</v>
       </c>
-      <c r="D143" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>473</v>
-      </c>
-      <c r="B144">
-        <v>1.0613341537005201</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2.3276192255447601E-9</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>300</v>
-      </c>
-      <c r="B145">
-        <v>1.06554506892316</v>
-      </c>
-      <c r="C145" s="1">
-        <v>8.2249541637223405E-13</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="E164" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>415</v>
       </c>
-      <c r="B146">
+      <c r="C165">
         <v>1.06576562978364</v>
       </c>
-      <c r="C146" s="1">
+      <c r="D165" s="1">
         <v>1.99084243859556E-7</v>
       </c>
-      <c r="D146" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="E165" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>741</v>
       </c>
-      <c r="B147">
+      <c r="C166">
         <v>1.06837771480002</v>
       </c>
-      <c r="C147" s="1">
+      <c r="D166" s="1">
         <v>1.0341666519720099E-6</v>
       </c>
-      <c r="D147" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="E166" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>573</v>
       </c>
-      <c r="B148">
+      <c r="C167">
         <v>1.0696436888013301</v>
       </c>
-      <c r="C148" s="1">
+      <c r="D167" s="1">
         <v>3.1513362720173401E-6</v>
       </c>
-      <c r="D148" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149">
-        <v>1.07571780205451</v>
-      </c>
-      <c r="C149" s="1">
-        <v>2.63875468183416E-24</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>560</v>
-      </c>
-      <c r="B150">
-        <v>1.0779902402428201</v>
-      </c>
-      <c r="C150" s="1">
-        <v>4.9912286372035405E-10</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B151">
-        <v>1.0846356270903099</v>
-      </c>
-      <c r="C151">
-        <v>4.78790344136484E-4</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>470</v>
-      </c>
-      <c r="B152">
-        <v>1.08971049168331</v>
-      </c>
-      <c r="C152" s="1">
-        <v>3.55497650793555E-9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="E167" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>934</v>
       </c>
-      <c r="B153">
+      <c r="C168">
         <v>1.1186179895767101</v>
       </c>
-      <c r="C153" s="1">
+      <c r="D168" s="1">
         <v>6.87587439332067E-6</v>
       </c>
-      <c r="D153" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B154">
-        <v>1.13986086140118</v>
-      </c>
-      <c r="C154" s="1">
-        <v>2.0819415035091299E-20</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B155">
-        <v>1.1529074734273299</v>
-      </c>
-      <c r="C155" s="1">
-        <v>4.37863019299219E-17</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>140</v>
-      </c>
-      <c r="B156">
-        <v>1.18677338454211</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1.3059249060680499E-12</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="E168" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>1099</v>
       </c>
-      <c r="B157">
+      <c r="C169">
         <v>1.22309477862191</v>
       </c>
-      <c r="C157" s="1">
+      <c r="D169" s="1">
         <v>4.6323875048277799E-25</v>
       </c>
-      <c r="D157" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158">
-        <v>1.2290269271497201</v>
-      </c>
-      <c r="C158" s="1">
-        <v>2.60650290385328E-10</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B159">
-        <v>1.2325703583691201</v>
-      </c>
-      <c r="C159" s="1">
-        <v>8.3950960925046395E-24</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="E169" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>1002</v>
       </c>
-      <c r="B160">
+      <c r="C170">
         <v>1.2331822895623801</v>
       </c>
-      <c r="C160" s="1">
+      <c r="D170" s="1">
         <v>7.9757150981290295E-27</v>
       </c>
-      <c r="D160" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="E170" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>826</v>
       </c>
-      <c r="B161">
+      <c r="C171">
         <v>1.2480264927351901</v>
       </c>
-      <c r="C161" s="1">
+      <c r="D171" s="1">
         <v>1.8244725361916101E-29</v>
       </c>
-      <c r="D161" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162">
-        <v>1.2676321880603101</v>
-      </c>
-      <c r="C162" s="1">
-        <v>1.2544616925347201E-19</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B163">
-        <v>1.2683001048603</v>
-      </c>
-      <c r="C163" s="1">
-        <v>9.3589240434163799E-18</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="E171" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>1191</v>
       </c>
-      <c r="B164">
+      <c r="C172">
         <v>1.2687358117621199</v>
       </c>
-      <c r="C164" s="1">
+      <c r="D172" s="1">
         <v>2.0950722904533802E-31</v>
       </c>
-      <c r="D164" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="E172" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>857</v>
       </c>
-      <c r="B165">
+      <c r="C173">
         <v>1.27502392405098</v>
       </c>
-      <c r="C165" s="1">
+      <c r="D173" s="1">
         <v>3.2537238783795698E-5</v>
       </c>
-      <c r="D165" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="E173" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>144</v>
       </c>
-      <c r="B166">
+      <c r="C174">
         <v>1.3000090251336001</v>
       </c>
-      <c r="C166" s="1">
+      <c r="D174" s="1">
         <v>5.1631129003213297E-15</v>
       </c>
-      <c r="D166" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>528</v>
-      </c>
-      <c r="B167">
-        <v>1.31000420019455</v>
-      </c>
-      <c r="C167" s="1">
-        <v>2.20079849383841E-29</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="E174" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>63</v>
       </c>
-      <c r="B168">
+      <c r="C175">
         <v>1.3225494679219101</v>
       </c>
-      <c r="C168" s="1">
+      <c r="D175" s="1">
         <v>8.04510772409673E-18</v>
       </c>
-      <c r="D168" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="E175" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>371</v>
       </c>
-      <c r="B169">
+      <c r="C176">
         <v>1.32946463626885</v>
       </c>
-      <c r="C169" s="1">
+      <c r="D176" s="1">
         <v>1.5633816186017501E-18</v>
       </c>
-      <c r="D169" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B170">
-        <v>1.3458841001395601</v>
-      </c>
-      <c r="C170" s="1">
-        <v>1.899560818209E-26</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="E176" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>285</v>
       </c>
-      <c r="B171">
+      <c r="C177">
         <v>1.4147430727814601</v>
       </c>
-      <c r="C171" s="1">
+      <c r="D177" s="1">
         <v>5.6497445978080095E-47</v>
       </c>
-      <c r="D171" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="E177" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>1207</v>
       </c>
-      <c r="B172">
+      <c r="C178">
         <v>1.46040851556861</v>
       </c>
-      <c r="C172" s="1">
+      <c r="D178" s="1">
         <v>1.8272210126597802E-15</v>
       </c>
-      <c r="D172" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="E178" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>182</v>
       </c>
-      <c r="B173">
+      <c r="C179">
         <v>1.51318423167546</v>
       </c>
-      <c r="C173" s="1">
+      <c r="D179" s="1">
         <v>9.1334251653234997E-12</v>
       </c>
-      <c r="D173" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="E179" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>370</v>
       </c>
-      <c r="B174">
+      <c r="C180">
         <v>1.5307496492330399</v>
       </c>
-      <c r="C174" s="1">
+      <c r="D180" s="1">
         <v>4.5111306437410502E-34</v>
       </c>
-      <c r="D174" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="E180" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>250</v>
       </c>
-      <c r="B175">
+      <c r="C181">
         <v>1.5405450813808701</v>
       </c>
-      <c r="C175" s="1">
+      <c r="D181" s="1">
         <v>2.7206573068254402E-32</v>
       </c>
-      <c r="D175" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176">
-        <v>1.5550550073268199</v>
-      </c>
-      <c r="C176" s="1">
-        <v>9.6794695608274494E-35</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="E181" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>168</v>
       </c>
-      <c r="B177">
+      <c r="C182">
         <v>1.56047333056893</v>
       </c>
-      <c r="C177" s="1">
+      <c r="D182" s="1">
         <v>3.6995113718994899E-7</v>
       </c>
-      <c r="D177" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>213</v>
-      </c>
-      <c r="B178">
-        <v>1.6157203525903401</v>
-      </c>
-      <c r="C178" s="1">
-        <v>8.4022018848066801E-47</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="E182" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>1196</v>
       </c>
-      <c r="B179">
+      <c r="C183">
         <v>1.65232175799813</v>
       </c>
-      <c r="C179" s="1">
+      <c r="D183" s="1">
         <v>9.75624644305035E-38</v>
       </c>
-      <c r="D179" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>383</v>
-      </c>
-      <c r="B180">
-        <v>1.7619810235020099</v>
-      </c>
-      <c r="C180" s="1">
-        <v>6.2613446174080999E-52</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="E183" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>1004</v>
       </c>
-      <c r="B181">
+      <c r="C184">
         <v>1.82445325945787</v>
       </c>
-      <c r="C181" s="1">
+      <c r="D184" s="1">
         <v>1.12380609385543E-64</v>
       </c>
-      <c r="D181" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>418</v>
-      </c>
-      <c r="B182">
-        <v>1.86379140741019</v>
-      </c>
-      <c r="C182" s="1">
-        <v>7.1504138772129197E-33</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B183">
-        <v>1.8837056430865</v>
-      </c>
-      <c r="C183" s="1">
-        <v>3.2660090216364102E-64</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="E184" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>1086</v>
       </c>
-      <c r="B184">
+      <c r="C185">
         <v>1.8851032872800499</v>
       </c>
-      <c r="C184" s="1">
+      <c r="D185" s="1">
         <v>1.3190389128256899E-6</v>
       </c>
-      <c r="D184" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="E185" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>703</v>
       </c>
-      <c r="B185">
+      <c r="C186">
         <v>1.89298058182067</v>
       </c>
-      <c r="C185" s="1">
+      <c r="D186" s="1">
         <v>6.4067176082585698E-62</v>
       </c>
-      <c r="D185" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="E186" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>154</v>
       </c>
-      <c r="B186">
+      <c r="C187">
         <v>1.9812099761706501</v>
       </c>
-      <c r="C186" s="1">
+      <c r="D187" s="1">
         <v>2.9281836674361799E-30</v>
       </c>
-      <c r="D186" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="E187" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>27</v>
       </c>
-      <c r="B187">
+      <c r="C188">
         <v>1.9826033524495801</v>
       </c>
-      <c r="C187" s="1">
+      <c r="D188" s="1">
         <v>1.04562546779802E-11</v>
       </c>
-      <c r="D187" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="E188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>117</v>
       </c>
-      <c r="B188">
+      <c r="C189">
         <v>2.0569044046282201</v>
       </c>
-      <c r="C188" s="1">
+      <c r="D189" s="1">
         <v>5.7843840252626002E-19</v>
       </c>
-      <c r="D188" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="E189" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>471</v>
       </c>
-      <c r="B189">
+      <c r="C190">
         <v>2.1318294027313902</v>
       </c>
-      <c r="C189" s="1">
+      <c r="D190" s="1">
         <v>2.6831220825820201E-57</v>
       </c>
-      <c r="D189" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>67</v>
-      </c>
-      <c r="B190">
-        <v>2.1565756001371001</v>
-      </c>
-      <c r="C190" s="1">
-        <v>2.36715721651675E-40</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1104</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>2.1738490524293899</v>
       </c>
-      <c r="C191" s="1">
+      <c r="D191" s="1">
         <v>3.21811523633618E-18</v>
       </c>
-      <c r="D191" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1344</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>2.3373907306758999</v>
       </c>
-      <c r="C192" s="1">
+      <c r="D192" s="1">
         <v>1.20155231503064E-34</v>
       </c>
-      <c r="D192" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>379</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>2.3481970770027698</v>
       </c>
-      <c r="C193" s="1">
+      <c r="D193" s="1">
         <v>3.0475157849043001E-43</v>
       </c>
-      <c r="D193" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1301</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>2.43235925468738</v>
       </c>
-      <c r="C194" s="1">
+      <c r="D194" s="1">
         <v>2.1823128860203599E-79</v>
       </c>
-      <c r="D194" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>88</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>2.4347811582352401</v>
       </c>
-      <c r="C195" s="1">
+      <c r="D195" s="1">
         <v>1.05301142634144E-42</v>
       </c>
-      <c r="D195" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>718</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>2.5255663844471501</v>
       </c>
-      <c r="C196" s="1">
+      <c r="D196" s="1">
         <v>2.1892314661822201E-59</v>
       </c>
-      <c r="D196" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>252</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>2.7133540969342498</v>
       </c>
-      <c r="C197" s="1">
+      <c r="D197" s="1">
         <v>8.1132976867005505E-79</v>
       </c>
-      <c r="D197" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>468</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>3.0422404397679701</v>
       </c>
-      <c r="C198" s="1">
+      <c r="D198" s="1">
         <v>4.17532061340655E-132</v>
       </c>
-      <c r="D198" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1270</v>
       </c>
-      <c r="B199">
+      <c r="C199">
         <v>3.4130401505446999</v>
       </c>
-      <c r="C199" s="1">
+      <c r="D199" s="1">
         <v>1.5879326792366201E-143</v>
       </c>
-      <c r="D199" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>22</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>3.5784079560466702</v>
       </c>
-      <c r="C200" s="1">
+      <c r="D200" s="1">
         <v>5.6581926763708698E-106</v>
       </c>
-      <c r="D200" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>523</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>3.6771932520894599</v>
       </c>
-      <c r="C201" s="1">
+      <c r="D201" s="1">
         <v>4.0576983609029601E-193</v>
       </c>
-      <c r="D201" t="e">
+      <c r="E201" t="e">
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D201">
-    <sortCondition ref="B2:B201"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E201">
+    <sortCondition ref="E2:E201"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19514,8 +20389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="F10:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
